--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -41,9 +41,6 @@
     <t>Kuinka projekti aloitetaan</t>
   </si>
   <si>
-    <t>Kuinka paljon tämä maksaa?</t>
-  </si>
-  <si>
     <t>Kuinka nopeasti saan verkkosivut</t>
   </si>
   <si>
@@ -62,12 +59,6 @@
     <t xml:space="preserve">Olen aina ollut kiinnostunut siitä miten tietokeneet toimivat ja kommunikoivat keskenään, mutta vasta kun olin perustamassa yritystä joka tarvitsi verkkosivuston kiinnostuin koodaamisesta ja verkkosuunnitelusta. Vastasin noin 2 vuotta yrityksen verkkoheityksestä, jonka aikana opin paljon verkkokehityksestä, eri teknologioista ja modernin internetin parhaista menetelmistä. Tällä hetkellä teen vaativatkin sivustot täysin itse hyödyntäen verkon parhaita kirjastoja ja edistyksellisimpiä palveluita.  </t>
   </si>
   <si>
-    <t>Mikä tämä sivusto on ?</t>
-  </si>
-  <si>
-    <t>Miten verkkosivuja päivitetään ?</t>
-  </si>
-  <si>
     <t>Käytänkö Wordpressiä tai Drupalia</t>
   </si>
   <si>
@@ -83,16 +74,25 @@
     <t>Yleensä 2- 3 viikkoa ideasta toiminnalliseksi sivuksi. Huomaa että tähän vaikuttaa moni tekijä kuten projektin vaativuus ja tuotettavan sisällön määrä. Yksinkertaiset markkinointi ja esittelysivut voidaan tehdä alle viikossa ja sivut valmistuvat nopeammin mitä enemmän teksti ja kuva sisältöä on valmiiksi.</t>
   </si>
   <si>
-    <t>Back-end osaaminen?</t>
-  </si>
-  <si>
-    <t>Front-end osaaminen?</t>
-  </si>
-  <si>
     <t>Olen taitava front-end osaaja, ja tunnen hyvin verkon perus tekniikat html, css, javascript, sekä verkkkehityksen parhaat menetelmät. Suunnittelija ja koodaaja sivuista aina tyylikkäitä, yksinkertaisia ja käyttäjäystävällisiä, unohtamatta tehokkuutta ja hakukoneita. Tällä hetkellä käytän React.js lähes kaikkeen, mutta olen myös kiinnostunut muista suosituista teknologioista ja puhtaan javascriptin ratkaisuista.</t>
   </si>
   <si>
     <t>Tämä on henkilökohtainen verkkosivu tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivuston suunnittelu ja koodaaminen kesti alle 15 tuntia, ja modernien pilvipalveluiden avulla se lautautuu salamannopeasti ympärimaailmaa. Ainoa ylläpitokustannus on vuosittainen 9e domain maksu. Ota yhteyttä jos tarvitset verkkosivut henkilökohtaisen brandin kasvattamiseen.</t>
+  </si>
+  <si>
+    <t>Kuinka paljon tämä maksaa</t>
+  </si>
+  <si>
+    <t>Miten verkkosivuja päivitetään</t>
+  </si>
+  <si>
+    <t>Front-end osaaminen</t>
+  </si>
+  <si>
+    <t>Back-end osaaminen</t>
+  </si>
+  <si>
+    <t>Mikä tämä sivusto on</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,39 +474,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +519,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,10 +538,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,15 +549,15 @@
         <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,10 +591,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32140" yWindow="1720" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-27280" yWindow="3220" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,33 +538,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,7 +567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -607,15 +599,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6"/>
+  <dimension ref="A4:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27280" yWindow="3220" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-26320" yWindow="4980" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
-    <sheet name="faq-rekry" sheetId="2" r:id="rId2"/>
-    <sheet name="faq-other" sheetId="3" r:id="rId3"/>
-    <sheet name="trash" sheetId="4" r:id="rId4"/>
+    <sheet name="en-tilaus" sheetId="5" r:id="rId2"/>
+    <sheet name="faq-rekry" sheetId="2" r:id="rId3"/>
+    <sheet name="en-rekry" sheetId="6" r:id="rId4"/>
+    <sheet name="faq-other" sheetId="3" r:id="rId5"/>
+    <sheet name="en-other" sheetId="7" r:id="rId6"/>
+    <sheet name="trash" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>title</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Miten päädyit tekemään verkkosivuja</t>
   </si>
   <si>
-    <t>laskutan 20e/h suunnittelusta ja noin 40e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta.</t>
-  </si>
-  <si>
     <t>Aloin tekemään verkkosivuja käyttäen html, css ja puhdasta javascriptiä, joten voin sanoa että tunnen hyvin verkkosivujen perus rakennuspalat. Nykyään käytän React.js kaikkien verkkosivujen tekemiseen. React tarjoaa hyvän komponentti pohjaisen kehittämisen ja laajan määrän avoimen lähdekoodin kirjastoja. React on todella joustava, sitä voidaan käytää node.js ympäristössä tai se voidaan koota staattiseksi verkkosivuksi, jolloin se voidaan hostata lähes ilmaiseksi globaaleissa pilvipalveluissa.</t>
   </si>
   <si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve">Käytän sisällönhallinta järjestelmiä (CMS), jotka tarjoavat helpon käyttöliittymän sisällön lisäämiseen ja muokkaamiseen vaikka et ymmärtäisi koodista mitään. Käytän tällä hetkellä Drupal 8, Wordpress ja Netlify CMS. Halutessasi voin myös tehdä sivuston päivittämisen puolestasi, laskutan 20e/työtunti sivujen ylläpitämisestä. </t>
   </si>
   <si>
-    <t>Ota yhteyttä ja kerro minkälainen projekti kysessää. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta. Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
-  </si>
-  <si>
     <t>Yleensä 2- 3 viikkoa ideasta toiminnalliseksi sivuksi. Huomaa että tähän vaikuttaa moni tekijä kuten projektin vaativuus ja tuotettavan sisällön määrä. Yksinkertaiset markkinointi ja esittelysivut voidaan tehdä alle viikossa ja sivut valmistuvat nopeammin mitä enemmän teksti ja kuva sisältöä on valmiiksi.</t>
   </si>
   <si>
@@ -93,13 +90,78 @@
   </si>
   <si>
     <t>Mikä tämä sivusto on</t>
+  </si>
+  <si>
+    <t>Ota yhteyttä ja kerro minkälainen projekti on kysessä. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta, jos tarpeesi ovat selkeät voimme myös sopia kiinteästä hinnasta.  Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
+  </si>
+  <si>
+    <t>How much does this cost</t>
+  </si>
+  <si>
+    <t>How fast do i get a website</t>
+  </si>
+  <si>
+    <t>How do I update my website</t>
+  </si>
+  <si>
+    <t>Paras osaamiseni löytyy front-end puolelta.  Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
+  </si>
+  <si>
+    <t>Käytän laajasti eri tekniikoita ja palveluita. Vaativat verkkopalvelut hostaan tehokkaalla nginx serverillä node.js ympäristössä, yleensä Digitaloceanin dropletissa jonka edessä on Cloudfare CDN. Yksinkertaiset staattiset sivustot voin hostata lähes millä tahansa serverillä, mutta yleensä käytän Amazon AWS tai Netlify:ta, ne tarjovat edulliset hinnat, globaalit cdn verkostot. Staattisten verkkosivujen rajapinta toiminnallisuuksiin käytän AWS lambda funktioilla. React.js sovellukset tarvitsevat usein tietokannan, siihen käytän noSQL tietokantoja kuten ( MongoDB, PostgreSQL tai Elasticsearch ).</t>
+  </si>
+  <si>
+    <t>How to get started</t>
+  </si>
+  <si>
+    <t>Contact me and tell what kind of project is in question. I'll map the workload of the project and will make you an offer.
+If you have clear needs we can also agree on a fixed price. Requesting the offer is completely free.</t>
+  </si>
+  <si>
+    <t>Usually 2- 3 weeks from idea to functional website. Note that this is influenced by many factors, such as the complexity of the project and the amount of content that is needed. Simple marketing and demo sites can be done in less than a week, and the pages will be completed faster if most of the text and image content is already completed.</t>
+  </si>
+  <si>
+    <t>I use content management systems (CMS) that provide an easy interface for adding and editing content even if you don't understand anything about coding. I am currently using Drupal 8, Wordpress and Netlify CMS. If you wish, I can also update your site for you, billing 20e / h to maintain the site.</t>
+  </si>
+  <si>
+    <t>Front-end skills</t>
+  </si>
+  <si>
+    <t>Back-end skills</t>
+  </si>
+  <si>
+    <t>My best knowledge is found on the front-end side. I use seamlessly HTML, CSS, JS and I know the best practices of the modern Web. I can do small and medium sized web applications using React.js and libraries that work with it. I always strive to make my code clean, performant, and hardware independent.</t>
+  </si>
+  <si>
+    <t>I use a wide variety of technologies and services. For demanding Web services is use powerful nginx server with node.js environment, usually in the Digitalocean droplet with Cloudfare CDN in front. Simple static sites I can host on almost any server, but I usually use Amazon AWS or Netlify, they offer low cost and global CDN. When static site needs server functionality I use AWS lambda functions. React.js applications often require a database, for that I use noSQL databases such as (MongoDB, PostgreSQL or Elasticsearch).</t>
+  </si>
+  <si>
+    <t>Whats up with this site</t>
+  </si>
+  <si>
+    <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivuston suunnittelu ja koodaaminen kesti alle 15 tuntia, ja modernien pilvipalveluiden avulla se lautautuu salamannopeasti ympärimaailmaa. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN. Ota ihmeessä yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a personal website designed for recruitment and acquisition of new customers. Sites design and coding took less than 15 hours, and with the help of modern cloud services, it will load almost instantly around the world. The site is made using JAMstack (Gatsby.js) and hosted by Digitalocean, Cloudfare CDN in front. Get in touch if you need a website like this to grow your personal brand.
+</t>
+  </si>
+  <si>
+    <t>I charge 20e/h for the design and about 40e/h coding, depending on what technologies I use. In this case, the simple webpages cost about 200e - 750e and the complete web service is about 1200e - 3000e. If you have a tight budget we can also agree on a fixed price and make the sites hosting cost 0e/month.</t>
+  </si>
+  <si>
+    <t>laskutan 20e/h suunnittelusta ja noin 40e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta ja tehdä sivuston hostaaminen 0e/kk.</t>
+  </si>
+  <si>
+    <t>Web suunnittelu</t>
+  </si>
+  <si>
+    <t>Suunnittelen näyttäviä ja tyylikkäitä verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaala tavalla esiin, koska design on tukemassa sisältöä eikä häiritsemässä sitä. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, ja käytän laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +203,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF2A2B2A"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,12 +231,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -450,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,15 +549,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -490,22 +565,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -515,11 +582,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,18 +663,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,12 +696,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,10 +761,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,12 +775,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,12 +824,44 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26320" yWindow="4980" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-26320" yWindow="4980" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>How do I update my website</t>
   </si>
   <si>
-    <t>Paras osaamiseni löytyy front-end puolelta.  Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
-  </si>
-  <si>
     <t>Käytän laajasti eri tekniikoita ja palveluita. Vaativat verkkopalvelut hostaan tehokkaalla nginx serverillä node.js ympäristössä, yleensä Digitaloceanin dropletissa jonka edessä on Cloudfare CDN. Yksinkertaiset staattiset sivustot voin hostata lähes millä tahansa serverillä, mutta yleensä käytän Amazon AWS tai Netlify:ta, ne tarjovat edulliset hinnat, globaalit cdn verkostot. Staattisten verkkosivujen rajapinta toiminnallisuuksiin käytän AWS lambda funktioilla. React.js sovellukset tarvitsevat usein tietokannan, siihen käytän noSQL tietokantoja kuten ( MongoDB, PostgreSQL tai Elasticsearch ).</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Whats up with this site</t>
   </si>
   <si>
-    <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivuston suunnittelu ja koodaaminen kesti alle 15 tuntia, ja modernien pilvipalveluiden avulla se lautautuu salamannopeasti ympärimaailmaa. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN. Ota ihmeessä yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a personal website designed for recruitment and acquisition of new customers. Sites design and coding took less than 15 hours, and with the help of modern cloud services, it will load almost instantly around the world. The site is made using JAMstack (Gatsby.js) and hosted by Digitalocean, Cloudfare CDN in front. Get in touch if you need a website like this to grow your personal brand.
 </t>
   </si>
@@ -154,7 +148,13 @@
     <t>Web suunnittelu</t>
   </si>
   <si>
-    <t>Suunnittelen näyttäviä ja tyylikkäitä verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaala tavalla esiin, koska design on tukemassa sisältöä eikä häiritsemässä sitä. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, ja käytän laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
+    <t>Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
+  </si>
+  <si>
+    <t>Suunnittelen upeita verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaalla tavalla esiin. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, sekä käytän laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
+  </si>
+  <si>
+    <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN, joiden avulla se lautautuu salamannopeasti ympärimaailmaa. Ota  yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,10 +604,10 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -674,15 +674,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -716,18 +716,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,10 +795,10 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26320" yWindow="4980" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-26920" yWindow="8480" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Mikä tämä sivusto on</t>
   </si>
   <si>
-    <t>Ota yhteyttä ja kerro minkälainen projekti on kysessä. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta, jos tarpeesi ovat selkeät voimme myös sopia kiinteästä hinnasta.  Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
-  </si>
-  <si>
     <t>How much does this cost</t>
   </si>
   <si>
@@ -108,10 +105,6 @@
   </si>
   <si>
     <t>How to get started</t>
-  </si>
-  <si>
-    <t>Contact me and tell what kind of project is in question. I'll map the workload of the project and will make you an offer.
-If you have clear needs we can also agree on a fixed price. Requesting the offer is completely free.</t>
   </si>
   <si>
     <t>Usually 2- 3 weeks from idea to functional website. Note that this is influenced by many factors, such as the complexity of the project and the amount of content that is needed. Simple marketing and demo sites can be done in less than a week, and the pages will be completed faster if most of the text and image content is already completed.</t>
@@ -139,12 +132,6 @@
 </t>
   </si>
   <si>
-    <t>I charge 20e/h for the design and about 40e/h coding, depending on what technologies I use. In this case, the simple webpages cost about 200e - 750e and the complete web service is about 1200e - 3000e. If you have a tight budget we can also agree on a fixed price and make the sites hosting cost 0e/month.</t>
-  </si>
-  <si>
-    <t>laskutan 20e/h suunnittelusta ja noin 40e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta ja tehdä sivuston hostaaminen 0e/kk.</t>
-  </si>
-  <si>
     <t>Web suunnittelu</t>
   </si>
   <si>
@@ -155,6 +142,19 @@
   </si>
   <si>
     <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN, joiden avulla se lautautuu salamannopeasti ympärimaailmaa. Ota  yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
+  </si>
+  <si>
+    <t>laskutan 17e/h suunnittelusta ja noin 35e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta ja tehdä sivuston hostaaminen 0e/kk.</t>
+  </si>
+  <si>
+    <t>I charge 17e/h for the design and about 30e/h coding, depending on what technologies I use. In this case, the simple webpages cost about 300e - 750e and the complete web service is about 1200e - 3000e. If you have a tight budget we can also agree on a fixed price and make the sites hosting cost 0e/month.</t>
+  </si>
+  <si>
+    <t>Ota yhteyttä ja kerro minkälainen projekti on kysessä. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta, jos budjettisi on tiukka voimme myös sopia kiinteästä hinnasta. Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
+  </si>
+  <si>
+    <t>Contact me and tell what kind of project is in question. I'll map the workload of the project and will make you an offer.
+If you budget is tight we can also agree on a fixed price. Requesting the offer is completely free.</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,34 +604,34 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
@@ -674,15 +674,15 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -716,18 +716,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -764,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,10 +795,10 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-26920" yWindow="8480" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-29240" yWindow="4860" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>title</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>My best knowledge is found on the front-end side. I use seamlessly HTML, CSS, JS and I know the best practices of the modern Web. I can do small and medium sized web applications using React.js and libraries that work with it. I always strive to make my code clean, performant, and hardware independent.</t>
-  </si>
-  <si>
-    <t>I use a wide variety of technologies and services. For demanding Web services is use powerful nginx server with node.js environment, usually in the Digitalocean droplet with Cloudfare CDN in front. Simple static sites I can host on almost any server, but I usually use Amazon AWS or Netlify, they offer low cost and global CDN. When static site needs server functionality I use AWS lambda functions. React.js applications often require a database, for that I use noSQL databases such as (MongoDB, PostgreSQL or Elasticsearch).</t>
   </si>
   <si>
     <t>Whats up with this site</t>
@@ -138,9 +135,6 @@
     <t>Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
   </si>
   <si>
-    <t>Suunnittelen upeita verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaalla tavalla esiin. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, sekä käytän laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
-  </si>
-  <si>
     <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN, joiden avulla se lautautuu salamannopeasti ympärimaailmaa. Ota  yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
   </si>
   <si>
@@ -156,12 +150,21 @@
     <t>Contact me and tell what kind of project is in question. I'll map the workload of the project and will make you an offer.
 If you budget is tight we can also agree on a fixed price. Requesting the offer is completely free.</t>
   </si>
+  <si>
+    <t>Suunnittelen upeita verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaalla tavalla esiin. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, sekä laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
+  </si>
+  <si>
+    <t>Käytän laajasti eri tekniikoita ja palveluita, joilla luon sivustoni. Yleensä kaikki alkaa rajapinnasta jolla front-end herää eloon. Minulla on osaamista NodeJS rest rajapinnoista, Vektori/Rasteri kartoista, React sovelluksista (SSR, CodeSplitting) sekä suosituista sisällönhallinta järjestelmistä. Teknologiat joita käytän: NGINX, Apache, NodeJS, Express, MongoDB, PostgreSQL, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox ja TileServerGL.</t>
+  </si>
+  <si>
+    <t>I use a wide variety of techniques and services to create my sites. Usually everything starts from the API which makes the front-end come to life. I have the expertise in NodeJS rest interfaces, Vector / Raster maps, React applications (SSR, CodeSplitting) and working with popular content management systems. The technologies I use are: NGINX, Apache, NodeJS, Express, MongoDB, PostgreSQL, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox and TileServerGL.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,6 +211,11 @@
       <color rgb="FF2A2B2A"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF2A2B2A"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,6 +254,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
@@ -549,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -585,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +616,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +653,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,23 +675,23 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -700,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -722,12 +731,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -764,7 +773,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,10 +804,10 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,10 +820,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B14"/>
+  <dimension ref="A4:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,6 +873,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="2:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/faq.xlsx
+++ b/src/data/faq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29240" yWindow="4860" windowWidth="23040" windowHeight="13720" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2400" yWindow="1540" windowWidth="24640" windowHeight="15600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="faq-tilaus" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">Wordpress ja Drupal ovat maailman suosituimpia sisällönhallinta järjestelmiä. Niiden avulla on helppo muokata verkkosivujen sisältöä. Käytän näitä järjestelmiä, jotta tekemiäni sivustoja olisi mahdollisimman helppo hallinoida. Kaikki tekstit, kuvat ja sivujen tiedot lisätään järjestelmään, ja sivut rakentuvat niiden pohjalta. </t>
   </si>
   <si>
-    <t xml:space="preserve">Käytän sisällönhallinta järjestelmiä (CMS), jotka tarjoavat helpon käyttöliittymän sisällön lisäämiseen ja muokkaamiseen vaikka et ymmärtäisi koodista mitään. Käytän tällä hetkellä Drupal 8, Wordpress ja Netlify CMS. Halutessasi voin myös tehdä sivuston päivittämisen puolestasi, laskutan 20e/työtunti sivujen ylläpitämisestä. </t>
-  </si>
-  <si>
     <t>Yleensä 2- 3 viikkoa ideasta toiminnalliseksi sivuksi. Huomaa että tähän vaikuttaa moni tekijä kuten projektin vaativuus ja tuotettavan sisällön määrä. Yksinkertaiset markkinointi ja esittelysivut voidaan tehdä alle viikossa ja sivut valmistuvat nopeammin mitä enemmän teksti ja kuva sisältöä on valmiiksi.</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Usually 2- 3 weeks from idea to functional website. Note that this is influenced by many factors, such as the complexity of the project and the amount of content that is needed. Simple marketing and demo sites can be done in less than a week, and the pages will be completed faster if most of the text and image content is already completed.</t>
   </si>
   <si>
-    <t>I use content management systems (CMS) that provide an easy interface for adding and editing content even if you don't understand anything about coding. I am currently using Drupal 8, Wordpress and Netlify CMS. If you wish, I can also update your site for you, billing 20e / h to maintain the site.</t>
-  </si>
-  <si>
     <t>Front-end skills</t>
   </si>
   <si>
@@ -125,39 +119,46 @@
     <t>Whats up with this site</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a personal website designed for recruitment and acquisition of new customers. Sites design and coding took less than 15 hours, and with the help of modern cloud services, it will load almost instantly around the world. The site is made using JAMstack (Gatsby.js) and hosted by Digitalocean, Cloudfare CDN in front. Get in touch if you need a website like this to grow your personal brand.
+    <t>Web suunnittelu</t>
+  </si>
+  <si>
+    <t>Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
+  </si>
+  <si>
+    <t>laskutan 17e/h suunnittelusta ja noin 35e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta ja tehdä sivuston hostaaminen 0e/kk.</t>
+  </si>
+  <si>
+    <t>Ota yhteyttä ja kerro minkälainen projekti on kysessä. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta, jos budjettisi on tiukka voimme myös sopia kiinteästä hinnasta. Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
+  </si>
+  <si>
+    <t>Suunnittelen upeita verkkosivuja, jotka saavat brändisi erottumaan massasta. 
+Pyrin tuomaan sisällön parhaalla tavalla esiin. Käytän Adobe photoshop ohjelmistoa suunitelmien kokoamiseen, sekä laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
+  </si>
+  <si>
+    <t>Käytän laajasti eri tekniikoita ja palveluita, joilla luon sivustoni. Minulla on osaamista NodeJS rest rajapinnoista, Vektori/Rasteri kartoista, React sovelluksista (SSR, CodeSplitting) sekä suosituista sisällönhallinta järjestelmistä. Teknologiat joita käytän: NGINX, Apache, NodeJS, Express, MongoDB, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox ja TileServerGL.</t>
+  </si>
+  <si>
+    <t>Käytän sisällönhallinta järjestelmiä (CMS), jotka tarjoavat helpon käyttöliittymän sisällön lisäämiseen ja muokkaamiseen vaikka et ymmärtäisi koodista mitään. Käytän tällä hetkellä Drupal 8, Wordpress ja Netlify CMS. Halutessasi voin myös tehdä sivuston päivittämisen puolestasi.</t>
+  </si>
+  <si>
+    <t>I use content management systems (CMS) that provide an easy interface for adding and editing content even if you don't understand anything about coding. I am currently using Drupal 8, Wordpress and Netlify CMS. If you wish, I can also update your site for you.</t>
+  </si>
+  <si>
+    <t>I use a wide variety of techniques and services to create my sites. I have the expertise in NodeJS rest interfaces, Vector / Raster maps, React applications (SSR, CodeSplitting) and working with popular content management systems. The technologies I use are: NGINX, Apache, NodeJS, Express, MongoDB, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox and TileServerGL.</t>
+  </si>
+  <si>
+    <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN, jonka avulla se lautautuu salamannopeasti ympärimaailmaa. Ota yhteyttä jos tarvitset tämän kaltaiset verkkosivut työnhakuun tai henkilökohtaisen brändin kasvattamiseen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a personal website designed for recruitment and acquisition of new customers. The site is made using JAMstack (Gatsby.js) and hosted by Digitalocean, Cloudfare CDN in front. Get in touch if you need a website like this for job seeking or to grow your personal brand.
 </t>
   </si>
   <si>
-    <t>Web suunnittelu</t>
-  </si>
-  <si>
-    <t>Tunnen hyvin HTML, CSS, JS ja modernin verkon parhaat menetelmät. Osaan tehdä pieniä ja keskisuuria web-sovelluksia käyttäen React.js ja sen kanssa toimivia kirjastoja. Pyrin aina tekemään koodistani selkolukuista, suorituskykyistä ja laitteisto riippumatonta.</t>
-  </si>
-  <si>
-    <t>Tämä on henkilökohtainen verkkosivusto tarkoitettu rekrytointiin ja uusien asiakkaiden hankintaan. Sivusto on tehty käyttäen JAMstack:iä (Gatsby.js) ja hostaan sitä Digitaloceanilla, edessä Cloudfare CDN, joiden avulla se lautautuu salamannopeasti ympärimaailmaa. Ota  yhteyttä jos tarvitset tämän kaltaiset verkkosivut henkilökohtaisen brändin kasvattamiseen.</t>
-  </si>
-  <si>
-    <t>laskutan 17e/h suunnittelusta ja noin 35e/h koodaamisesta riippuen mitä tekniikoita käytän. Tällöin yksinkertaiset verkkosivut maksavat noin 300e - 750e ja verkkopalvelujen tuottaminen noin 1200e - 3000e. Jos sinulla on tiukka budjetti voimme myös sopia kiinteästä hinnasta ja tehdä sivuston hostaaminen 0e/kk.</t>
-  </si>
-  <si>
-    <t>I charge 17e/h for the design and about 30e/h coding, depending on what technologies I use. In this case, the simple webpages cost about 300e - 750e and the complete web service is about 1200e - 3000e. If you have a tight budget we can also agree on a fixed price and make the sites hosting cost 0e/month.</t>
-  </si>
-  <si>
-    <t>Ota yhteyttä ja kerro minkälainen projekti on kysessä. Kartoitan projektin työnmäärän ja teen tarjouksen. Tarjoukseen on määritelty aika arvio työvaiheista ja projektin lopullisesta deadlinesta, jos budjettisi on tiukka voimme myös sopia kiinteästä hinnasta. Tarjouksen pyytäminen ja siinä tapahtuva konsultointi on täysin ilmaista.</t>
+    <t>I charge 17e/h for the design and about 30e/h coding, depending on what technologies I use. In this case, the simple webpages cost about 300e - 750e and the complete web service is about 1200e - 3000e. If you have a tight budget we can also agree on a fixed price and make the sites hosting to cost 0e/month.</t>
   </si>
   <si>
     <t>Contact me and tell what kind of project is in question. I'll map the workload of the project and will make you an offer.
-If you budget is tight we can also agree on a fixed price. Requesting the offer is completely free.</t>
-  </si>
-  <si>
-    <t>Suunnittelen upeita verkkosivuja, jotka saavat brändisi erottumaan massasta. Pyrin tuomaan sisällön parhaalla tavalla esiin. Käytän Adobe photoshop ohjelmistoa sunnitelmien kokoamiseen, sekä laajasti eri työkaluja ja palveluita joita verkosta löytyy.</t>
-  </si>
-  <si>
-    <t>Käytän laajasti eri tekniikoita ja palveluita, joilla luon sivustoni. Yleensä kaikki alkaa rajapinnasta jolla front-end herää eloon. Minulla on osaamista NodeJS rest rajapinnoista, Vektori/Rasteri kartoista, React sovelluksista (SSR, CodeSplitting) sekä suosituista sisällönhallinta järjestelmistä. Teknologiat joita käytän: NGINX, Apache, NodeJS, Express, MongoDB, PostgreSQL, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox ja TileServerGL.</t>
-  </si>
-  <si>
-    <t>I use a wide variety of techniques and services to create my sites. Usually everything starts from the API which makes the front-end come to life. I have the expertise in NodeJS rest interfaces, Vector / Raster maps, React applications (SSR, CodeSplitting) and working with popular content management systems. The technologies I use are: NGINX, Apache, NodeJS, Express, MongoDB, PostgreSQL, MySQL, Serverless, AWS, Digitalocean, Cloudflare, Wordpress, Drupal, Mapbox and TileServerGL.</t>
+If you have a tight budget we can also agree on a fixed price. Requesting the offer is completely free.</t>
   </si>
 </sst>
 </file>
@@ -537,7 +538,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,15 +559,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,15 +575,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -594,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,34 +614,34 @@
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -653,7 +654,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,26 +673,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,6 +703,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -709,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,18 +727,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -770,10 +772,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,7 +791,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,10 +806,10 @@
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,15 +853,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -867,15 +869,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="20" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
